--- a/biology/Zoologie/Eurytoma_martellii/Eurytoma_martellii.xlsx
+++ b/biology/Zoologie/Eurytoma_martellii/Eurytoma_martellii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurytoma martellii est un insecte parasitoïde de la famille des Eurytomidés (hyménoptères : chalcidoïdés). Il est un des ennemis naturels de la mouche de l'olive.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est difficile de reconnaître un adulte, à cause de sa petite dimension et de l'absence d'éléments morphologiques particuliers. On le confond facilement avec d'autres hyménoptères
 Le corps est long de 2-4 mm, presque entièrement noir, avec des variations de couleur correspondant à la partie distale de la patte (jaune pâle) et des yeux. La tête est notablement longue, avec des antennes composées de 11 articles. Le flagelle est composé d'un anneau, d'un funicule de 5 articles et d'une baguette de 3. Les segments du funicule sont différents selon le sexe : chez la femelle, ils sont subcylindriques, chez le mâle, ils sont pédonculés et portent des verticilles de soies sensitives.
@@ -545,9 +559,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La biologie de ces insectes est peu caractéristique. Le peu d'informations disponibles signalent une activité comme parasitoîde primaire d'espèce tierces et sur la larve de mouche de l'Olive, sur lesquelles il développe un ectoparasitisme solitaire. La littérature ne cite pas d'autres hôtes, cependant le fait qu'il accomplit plusieurs générations dans l'année ferait penser qu'il s'agit d'un parasitoïde à régime polyphage ou oligophage. Dans certaines zones, il a pu devenir le parasitoïde le plus actif sur la mouche de l'Olive [1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La biologie de ces insectes est peu caractéristique. Le peu d'informations disponibles signalent une activité comme parasitoîde primaire d'espèce tierces et sur la larve de mouche de l'Olive, sur lesquelles il développe un ectoparasitisme solitaire. La littérature ne cite pas d'autres hôtes, cependant le fait qu'il accomplit plusieurs générations dans l'année ferait penser qu'il s'agit d'un parasitoïde à régime polyphage ou oligophage. Dans certaines zones, il a pu devenir le parasitoïde le plus actif sur la mouche de l'Olive .
 En ce qui concerne le rapport avec les autres parasitoïdes associés à la mouche de l'olive, il est va cité comme concurrent de l'Eupelmus urozonus, qui peut se développer comme hyperparasite même sur l'Eurytomidae.
 </t>
         </is>
@@ -577,9 +593,11 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La presence d'Eurytoma martellii est signalée dans plusieurs pays du Bassin Méditerranéen[2], alors que cette espèce n'est pas citée dans d'autres zones.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La presence d'Eurytoma martellii est signalée dans plusieurs pays du Bassin Méditerranéen, alors que cette espèce n'est pas citée dans d'autres zones.
 </t>
         </is>
       </c>
